--- a/data/line transects/1_means cover data plot.xlsx
+++ b/data/line transects/1_means cover data plot.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kerry\Desktop\Master-thesis\data\line transects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kerry\Desktop\Master-thesis\R\data\line transects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD4ABB4-6DBF-41FE-9B51-D8186579AA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F395D8-CABF-4813-8E83-EB682B398298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="means cover data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -50,73 +63,73 @@
 proximal slope</t>
   </si>
   <si>
-    <t>Actinacis %</t>
+    <t>Fungiid coral</t>
   </si>
   <si>
-    <t>Astreopora %</t>
+    <t>Actinacis</t>
   </si>
   <si>
-    <t>Bioclastic sediment %</t>
+    <t>Astreopora</t>
   </si>
   <si>
-    <t>Bivalve %</t>
+    <t>Bioclastic sediment</t>
   </si>
   <si>
-    <t>Bivalve boring %</t>
+    <t>Bivalve</t>
   </si>
   <si>
-    <t>Caulastrea %</t>
+    <t>Bivalve boring</t>
   </si>
   <si>
-    <t>CCA %</t>
+    <t>Caulastrea</t>
   </si>
   <si>
-    <t>Cement %</t>
+    <t>CCA</t>
   </si>
   <si>
-    <t>Coral %</t>
+    <t>Coral</t>
   </si>
   <si>
-    <t>Coralline algae %</t>
+    <t>Cement</t>
   </si>
   <si>
-    <t>Favites %</t>
+    <t>Coralline algae</t>
   </si>
   <si>
-    <t>Glauconite %</t>
+    <t>Favites</t>
   </si>
   <si>
-    <t>Hydnophora %</t>
+    <t>Glauconite</t>
   </si>
   <si>
-    <t>Montastrea %</t>
+    <t>Hydnophora</t>
   </si>
   <si>
-    <t>NA %</t>
+    <t>Montastrea</t>
   </si>
   <si>
-    <t>Pavona %</t>
+    <t>Pavona</t>
   </si>
   <si>
-    <t>Porites %</t>
+    <t>Porites</t>
   </si>
   <si>
-    <t>Poritid %</t>
+    <t>Sediment</t>
   </si>
   <si>
-    <t>Sediment %</t>
+    <t>Shale</t>
   </si>
   <si>
-    <t>Shale %</t>
+    <t>Siderastrea</t>
   </si>
   <si>
-    <t>Siderastrea %</t>
+    <t>Stylophora</t>
   </si>
   <si>
-    <t>Stylophora %</t>
+    <t>Tarbellastraea</t>
   </si>
   <si>
-    <t>Tarbellastraea %</t>
+    <t>Poriticae</t>
   </si>
 </sst>
 </file>
@@ -600,11 +613,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -677,90 +691,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cover</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> data in %</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'means cover data'!$A$2</c:f>
+              <c:f>'means cover data'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actinacis %</c:v>
+                  <c:v>Bioclastic sediment</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="92D050"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -802,15 +756,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'means cover data'!$B$2:$G$2</c:f>
+              <c:f>'means cover data'!$B$4:$G$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.86</c:v>
+                  <c:v>4.4510385756676554</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>41.391941391941394</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -829,851 +783,20 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7917-4EA1-88E2-75DADC89B9E5}"/>
+              <c16:uniqueId val="{00000002-E02E-4089-BACD-0683CBCA346B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="16"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'means cover data'!$A$3</c:f>
+              <c:f>'means cover data'!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Astreopora %</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bioclastic sediment %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.96</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.020000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bivalve %</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Bivalve boring %</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Caulastrea %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$7:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CCA %</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$8:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cement %</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$9:$G$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Coral %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$10:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Coralline algae %</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$11:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Favites %</c:v>
+                  <c:v>Poriticae</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1681,282 +804,6 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent5">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$12:$G$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Glauconite %</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$13:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hydnophora %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$14:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="13"/>
-          <c:order val="13"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Montastrea %</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
                 <a:lumMod val="80000"/>
                 <a:lumOff val="20000"/>
               </a:schemeClr>
@@ -1997,23 +844,22 @@
 proximal slope</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'means cover data'!$B$15:$G$15</c:f>
+              <c:f>'means cover data'!$B$19:$G$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.2640949554896141</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>20.329670329670328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2023,303 +869,26 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="14"/>
-          <c:order val="14"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NA %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$16:$G$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.58</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="15"/>
-          <c:order val="15"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pavona %</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$17:$G$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="16"/>
-          <c:order val="16"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Porites %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$18:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8.1300000000000008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.71</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.88</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>34.82</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-7917-4EA1-88E2-75DADC89B9E5}"/>
+              <c16:uniqueId val="{00000010-E02E-4089-BACD-0683CBCA346B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="17"/>
-          <c:order val="17"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'means cover data'!$A$19</c:f>
+              <c:f>'means cover data'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Poritid %</c:v>
+                  <c:v>Sediment</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2371,47 +940,47 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'means cover data'!$B$19:$G$19</c:f>
+              <c:f>'means cover data'!$B$20:$G$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.77</c:v>
+                  <c:v>75.964391691394653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.76</c:v>
+                  <c:v>1.2820512820512822</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8499999999999996</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>81.72043010752688</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>52.192982460000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>61.764705882352942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000012-7917-4EA1-88E2-75DADC89B9E5}"/>
+              <c16:uniqueId val="{00000011-E02E-4089-BACD-0683CBCA346B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="18"/>
-          <c:order val="18"/>
+          <c:idx val="15"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'means cover data'!$A$20</c:f>
+              <c:f>'means cover data'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sediment %</c:v>
+                  <c:v>Porites</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2419,8 +988,8 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -2463,50 +1032,1224 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'means cover data'!$B$20:$G$20</c:f>
+              <c:f>'means cover data'!$B$18:$G$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>73.459999999999994</c:v>
+                  <c:v>7.71513353115727</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.56</c:v>
+                  <c:v>14.102564102564102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.03</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79.430000000000007</c:v>
+                  <c:v>13.440860215053764</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.41</c:v>
+                  <c:v>39.912280699999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.36</c:v>
+                  <c:v>37.254901960784316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000013-7917-4EA1-88E2-75DADC89B9E5}"/>
+              <c16:uniqueId val="{0000000F-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.59347181008902072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9304029304029302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Caulastrea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bivalve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18315018315018314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5376344086021505</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actinacis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1869436201780414</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.454212454212454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Astreopora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bivalve boring</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5494505494505495</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CCA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18315018315018314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98039215686274506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cement</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.8947368420000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coralline algae</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18315018315018314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Favites</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.7477744807121658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4798534798534799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Glauconite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hydnophora</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$15:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.29673590504451036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2820512820512822</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Montastrea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$16:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36630036630036628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-E02E-4089-BACD-0683CBCA346B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="19"/>
-          <c:order val="19"/>
+          <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>'means cover data'!$A$21</c:f>
+              <c:f>'means cover data'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shale %</c:v>
+                  <c:v>Siderastrea</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2551,14 +2294,196 @@
 proximal slope</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.763440860215054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pavona</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'means cover data'!$B$17:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.59347181008902072</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-E02E-4089-BACD-0683CBCA346B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'means cover data'!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shale</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'means cover data'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Oligocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Oligocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oligocene
+proximal slope</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Miocene
+back reef</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Miocene
+reef front</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Miocene
+proximal slope</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'means cover data'!$B$21:$G$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2570,7 +2495,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81</c:v>
+                  <c:v>0.5376344086021505</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2579,12 +2504,11 @@
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-7917-4EA1-88E2-75DADC89B9E5}"/>
+              <c16:uniqueId val="{00000012-E02E-4089-BACD-0683CBCA346B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2593,14 +2517,13 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>'means cover data'!$A$22</c:f>
+              <c:f>'means cover data'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Siderastrea %</c:v>
+                  <c:v>Stylophora</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2645,26 +2568,25 @@
 proximal slope</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'means cover data'!$B$22:$G$22</c:f>
+              <c:f>'means cover data'!$B$23:$G$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.91575091575091572</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2673,12 +2595,11 @@
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-7917-4EA1-88E2-75DADC89B9E5}"/>
+              <c16:uniqueId val="{00000014-E02E-4089-BACD-0683CBCA346B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2687,14 +2608,13 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>'means cover data'!$A$23</c:f>
+              <c:f>'means cover data'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stylophora %</c:v>
+                  <c:v>Tarbellastraea</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -2739,110 +2659,19 @@
 proximal slope</c:v>
                 </c:pt>
               </c:strCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'means cover data'!$B$23:$G$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.58</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-7917-4EA1-88E2-75DADC89B9E5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="22"/>
-          <c:order val="22"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'means cover data'!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Tarbellastraea %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'means cover data'!$B$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Oligocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Oligocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oligocene
-proximal slope</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Miocene
-back reef</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Miocene
-reef front</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Miocene
-proximal slope</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'means cover data'!$B$24:$G$24</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.67</c:v>
+                  <c:v>1.1869436201780414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24</c:v>
+                  <c:v>0.36630036630036628</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2861,7 +2690,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000017-7917-4EA1-88E2-75DADC89B9E5}"/>
+              <c16:uniqueId val="{00000015-E02E-4089-BACD-0683CBCA346B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2873,14 +2702,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="33"/>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1525756528"/>
-        <c:axId val="1525756944"/>
-        <c:extLst/>
+        <c:axId val="503144608"/>
+        <c:axId val="503145856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1525756528"/>
+        <c:axId val="503144608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,12 +2735,32 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>time
-reef section</a:t>
+                  <a:t>time period</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>reef</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> section</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39891404423883886"/>
+              <c:y val="0.91856010186441128"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2943,7 +2791,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2979,7 +2827,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525756944"/>
+        <c:crossAx val="503145856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2987,10 +2835,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525756944"/>
+        <c:axId val="503145856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3008,8 +2855,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>cover</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> in %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3039,7 +2945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525756528"/>
+        <c:crossAx val="503144608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3052,7 +2958,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3676,22 +3582,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>658831</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25549</xdr:rowOff>
+      <xdr:colOff>784411</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>416859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>550881</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>91814</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>510988</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1" descr="Diagrammtyp: Gestapelte Säulen. Mehrere Werte nach &quot;time&#10;reef section&quot;&#10;&#10;Beschreibung automatisch generiert.">
+        <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAF0B84-5989-A3BF-5983-A0D77E3ADBF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B612B75-2AD9-4BB2-7D4E-C4956957345E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4001,7 +3907,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4009,13 +3915,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -4042,185 +3952,185 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0.86</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.1869436201780414</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12.454212454212454</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4.43</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>4.96</v>
-      </c>
-      <c r="C4">
-        <v>32.020000000000003</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.4510385756676554</v>
+      </c>
+      <c r="C4" s="2">
+        <v>41.391941391941394</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0.24</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.18315018315018314</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.5376344086021505</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5494505494505495</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>22.11</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13.79</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0.38</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.78</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.18315018315018314</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.98039215686274506</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>13.13</v>
-      </c>
-      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.8947368420000004</v>
+      </c>
+      <c r="G9" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4228,68 +4138,68 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0.34</v>
-      </c>
-      <c r="C10">
-        <v>3.27</v>
-      </c>
-      <c r="D10">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="B10" s="2">
+        <v>0.59347181008902072</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.9304029304029302</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10.84</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.18315018315018314</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>5.05</v>
-      </c>
-      <c r="C12">
-        <v>3.76</v>
-      </c>
-      <c r="D12">
-        <v>0.69</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4297,22 +4207,22 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="B13" s="2">
+        <v>4.7477744807121658</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.4798534798534799</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4320,22 +4230,22 @@
       <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>0.34</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4343,22 +4253,22 @@
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="B15" s="2">
+        <v>0.29673590504451036</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4366,45 +4276,45 @@
       <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0.86</v>
-      </c>
-      <c r="C16">
-        <v>1.08</v>
-      </c>
-      <c r="D16">
-        <v>2.42</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>2.58</v>
-      </c>
-      <c r="G16">
-        <v>1.04</v>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.36630036630036628</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="B17" s="2">
+        <v>0.59347181008902072</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4412,165 +4322,200 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="C18">
-        <v>19.12</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>15.71</v>
-      </c>
-      <c r="F18">
-        <v>30.88</v>
-      </c>
-      <c r="G18">
-        <v>34.82</v>
+      <c r="B18" s="2">
+        <v>7.71513353115727</v>
+      </c>
+      <c r="C18" s="2">
+        <v>14.102564102564102</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13.440860215053764</v>
+      </c>
+      <c r="F18" s="2">
+        <v>39.912280699999997</v>
+      </c>
+      <c r="G18" s="2">
+        <v>37.254901960784316</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>3.77</v>
-      </c>
-      <c r="C19">
-        <v>23.76</v>
-      </c>
-      <c r="D19">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3.2640949554896141</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20.329670329670328</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3.94</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>73.459999999999994</v>
-      </c>
-      <c r="C20">
-        <v>1.56</v>
-      </c>
-      <c r="D20">
-        <v>57.03</v>
-      </c>
-      <c r="E20">
-        <v>79.430000000000007</v>
-      </c>
-      <c r="F20">
-        <v>53.41</v>
-      </c>
-      <c r="G20">
-        <v>63.36</v>
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>75.964391691394653</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="D20" s="2">
+        <v>60.1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>81.72043010752688</v>
+      </c>
+      <c r="F20" s="2">
+        <v>52.192982460000003</v>
+      </c>
+      <c r="G20" s="2">
+        <v>61.764705882352942</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0.81</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.5376344086021505</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>4.05</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3.763440860215054</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1.58</v>
-      </c>
-      <c r="D23">
-        <v>1.52</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.91575091575091572</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>1.67</v>
-      </c>
-      <c r="C24">
-        <v>0.24</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1.1869436201780414</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.36630036630036628</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <f>SUM(B2:B24)</f>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:G26" si="0">SUM(C2:C24)</f>
+        <v>100</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>100.00000000200001</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/line transects/1_means cover data plot.xlsx
+++ b/data/line transects/1_means cover data plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kerry\Desktop\Master-thesis\R\data\line transects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F395D8-CABF-4813-8E83-EB682B398298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401F28EB-D66E-41BA-9235-FCD17826BB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1170,7 +1170,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
